--- a/Consegna S1-L5.xlsx
+++ b/Consegna S1-L5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CA43B5-E2C8-46BE-9061-DD9DFB86D1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E67A2D-BB75-40D0-99DD-9255435A72A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">Totale spese: </t>
   </si>
   <si>
-    <t>€208.820</t>
+    <t>€195.820</t>
   </si>
 </sst>
 </file>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>54</v>
@@ -1135,7 +1135,7 @@
         <v>1000</v>
       </c>
       <c r="G60" s="9">
-        <v>130000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1280,7 +1280,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="9">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
         <v>65</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9">
-        <v>39000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="72" spans="1:7">

--- a/Consegna S1-L5.xlsx
+++ b/Consegna S1-L5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E67A2D-BB75-40D0-99DD-9255435A72A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91D3EBF-E375-4ACA-BE35-CB034B3283BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>CONFIGURAZIONE</t>
   </si>
   <si>
-    <t>Verrá inserito uno switch ad ogni piano connesso a tutti i dispositivi di quel piano. Al piano terra si avrá in uno edei due edifici una sala apposita per il router e i server alla quale si coonetteranno entrambi</t>
-  </si>
-  <si>
-    <t>gli edifici. Si aggiungeranno come dispositivi ad ogni piano: stampanti, access point, telefono.</t>
+    <t>Verrá inserito uno switch ad ogni piano connesso a tutti i dispositivi di quel piano. Al piano terra si avrá in entrambi gli edifici una sala apposita per il router e i server alla quale si coonetteranno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si aggiungeranno come dispositivi ad ogni piano: stampanti, access point, telefono.</t>
   </si>
   <si>
     <t>Ogni computer sará predisposto con: windows 11. antivirus, pacchetto office. Il piano terra sará dotato di una connessione WI FI free per i clienti.</t>
@@ -397,22 +397,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 1">
+        <xdr:cNvPr id="3" name="Immagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0464AFEB-34C0-DDEF-F054-6F9622E1D969}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E1539A-97EE-1726-B545-4E1E414BD1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,8 +428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="8658225"/>
-          <a:ext cx="4086225" cy="4105275"/>
+          <a:off x="0" y="5505450"/>
+          <a:ext cx="4572000" cy="4543425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
